--- a/biology/Histoire de la zoologie et de la botanique/Sergueï_Korjinski/Sergueï_Korjinski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sergueï_Korjinski/Sergueï_Korjinski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Korjinski</t>
+          <t>Sergueï_Korjinski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergueï Ivanovitch Korjinski (Серге́й Ива́нович Коржи́нский), né le 26 août (7 septembre) 1861 à Astrakhan et mort le 18 novembre (1er décembre) 1900 à Saint-Pétersbourg, est un botaniste de l'Empire russe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Korjinski</t>
+          <t>Sergueï_Korjinski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît dans une famille d'origine polonaise (Korżyński) russifiée. Il termine ses études classiques au lycée d'Astrakhan, puis entre à l'université de Kazan dont il est diplômé en 1885. Il se prépare ensuite au professorat, étudiant auprès du professeur Porphyre Krylov (1850-1931) et présente sa thèse magistrale le 26 avril 1887, intitulée « Matériaux pour la géographie, la morphologie et la biologie d'Aldrovanda vesiculosa L. ». l'année suivante il est docteur en botanique et nommé professeur à l'institut de biologie de la toute nouvelle université de Tomsk, où il demeure jusqu'en 1892, date à laquelle il devient scientifique au jardin botanique impérial de Saint-Pétersbourg. L'année suivante, il est nommé directeur du musée botanique de l'Académie des sciences de Saint-Pétersbourg. Il commence à publier L'Herbier de la flore russe, dont la publication est poursuivie par Dimitri Litvinov. Il est élu membre de l'Académie des sciences de Saint-Pétersbourg en 1896. Il est décoré de l'ordre de Saint-Stanislas de la IIe et la IIIe classe.
-Il est enterré au cimetière Saint-Nicolas (Saint-Pétersbourg)[1].
+Il est enterré au cimetière Saint-Nicolas (Saint-Pétersbourg).
 Ses travaux sont surtout publiés dans le Bulletin de la Société des naturalistes de Kazan, ou dans le Botanisches Centralblatt. Il rédige plusieurs articles botaniques pour l'Encyclopédie Brockhaus et Efron.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Korjinski</t>
+          <t>Sergueï_Korjinski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Korshinskia (Apiaceae) lui est dédié par Vladimir Lipsky.
 </t>
